--- a/public/proyek.xlsx
+++ b/public/proyek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nextjs-product\erp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82CF257F-45A4-4790-9320-4A96A3927CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB4AB-9F52-42F9-8DD4-077A8BA9A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF811E2F-50FF-40B3-9948-B3206CB76E97}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>id_second</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id_perusahaan</t>
   </si>
@@ -39,9 +36,6 @@
     <t>nama</t>
   </si>
   <si>
-    <t>id_statusproyek</t>
-  </si>
-  <si>
     <t>klien</t>
   </si>
   <si>
@@ -51,13 +45,22 @@
     <t>kota</t>
   </si>
   <si>
-    <t>id_karyawan</t>
-  </si>
-  <si>
     <t>tanggal</t>
   </si>
   <si>
     <t>keterangan</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1(bks) 2(satu visi)</t>
+  </si>
+  <si>
+    <t>1(swasta) 0(negri)</t>
+  </si>
+  <si>
+    <t>format dd-mm-yyyy</t>
   </si>
 </sst>
 </file>
@@ -409,47 +412,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C086BD-5956-4524-824E-E260D67171AE}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/proyek.xlsx
+++ b/public/proyek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\nextjs-product\erp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EDB4AB-9F52-42F9-8DD4-077A8BA9A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA58C300-63B3-491E-85EA-C65D7DC6940B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF811E2F-50FF-40B3-9948-B3206CB76E97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF811E2F-50FF-40B3-9948-B3206CB76E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id_perusahaan</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>format dd-mm-yyyy</t>
+  </si>
+  <si>
+    <t>karyawan</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C086BD-5956-4524-824E-E260D67171AE}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,9 +426,10 @@
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -451,10 +455,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
